--- a/Data/aearep-128/candidatepackages.xlsx
+++ b/Data/aearep-128/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -49,9 +49,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-128</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-128/data_editor_only/data_editor_only</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>alltables.do</t>
@@ -181,7 +175,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -193,7 +187,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -205,10 +199,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C6">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D6"/>
     </row>
@@ -217,10 +211,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C7">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D7"/>
     </row>
@@ -230,7 +224,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -238,7 +232,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -246,7 +240,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -254,7 +248,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -262,7 +256,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -270,7 +264,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -278,7 +272,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -286,15 +280,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
